--- a/biology/Zoologie/Hyperolius_marginatus/Hyperolius_marginatus.xlsx
+++ b/biology/Zoologie/Hyperolius_marginatus/Hyperolius_marginatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius marginatus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius marginatus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre, :
 dans l'Est et le Sud-Est de la République démocratique du Congo ;
 dans l'ouest de la Tanzanie ;
 dans l'ouest du Malawi ;
@@ -549,7 +563,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
